--- a/sonuc_detayli_kontrol.xlsx
+++ b/sonuc_detayli_kontrol.xlsx
@@ -484,22 +484,22 @@
         <v>46068</v>
       </c>
       <c r="B2" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" t="n">
-        <v>33.2044500212474</v>
+        <v>32.99024670814536</v>
       </c>
       <c r="D2" t="n">
-        <v>33.34814259525981</v>
+        <v>33.18876315320099</v>
       </c>
       <c r="E2" t="n">
-        <v>33.33832749320761</v>
+        <v>33.2274917005308</v>
       </c>
       <c r="F2" t="n">
-        <v>33.15754296215118</v>
+        <v>33.08505604559473</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9466092687781582</v>
+        <v>0.9477465755092116</v>
       </c>
     </row>
     <row r="3">
@@ -507,22 +507,22 @@
         <v>46157</v>
       </c>
       <c r="B3" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" t="n">
-        <v>35.32104477729882</v>
+        <v>35.08452219861199</v>
       </c>
       <c r="D3" t="n">
-        <v>35.25955977576</v>
+        <v>35.00701944302548</v>
       </c>
       <c r="E3" t="n">
-        <v>35.03700670970441</v>
+        <v>34.87202970157595</v>
       </c>
       <c r="F3" t="n">
-        <v>35.31380059777755</v>
+        <v>35.00541493891357</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8725069478613392</v>
+        <v>0.8739860914035866</v>
       </c>
     </row>
     <row r="4">
@@ -530,22 +530,22 @@
         <v>46249</v>
       </c>
       <c r="B4" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C4" t="n">
-        <v>37.32114489913534</v>
+        <v>36.8760699407829</v>
       </c>
       <c r="D4" t="n">
-        <v>37.06418455587139</v>
+        <v>36.77919652985388</v>
       </c>
       <c r="E4" t="n">
-        <v>36.7929447761955</v>
+        <v>36.57200156782487</v>
       </c>
       <c r="F4" t="n">
-        <v>37.05699076258038</v>
+        <v>36.89352953552743</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8009824528532135</v>
+        <v>0.8035398209728152</v>
       </c>
     </row>
     <row r="5">
@@ -553,22 +553,22 @@
         <v>46310</v>
       </c>
       <c r="B5" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C5" t="n">
-        <v>38.42064792899044</v>
+        <v>37.89300228954905</v>
       </c>
       <c r="D5" t="n">
-        <v>38.16476379380285</v>
+        <v>37.89404968606753</v>
       </c>
       <c r="E5" t="n">
-        <v>37.95720805941241</v>
+        <v>37.69915682696818</v>
       </c>
       <c r="F5" t="n">
-        <v>38.07923854348164</v>
+        <v>37.88070241323455</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7575776920811645</v>
+        <v>0.7607085934431435</v>
       </c>
     </row>
     <row r="6">
@@ -576,22 +576,22 @@
         <v>46371</v>
       </c>
       <c r="B6" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C6" t="n">
-        <v>39.33989367703107</v>
+        <v>38.87560600909475</v>
       </c>
       <c r="D6" t="n">
-        <v>39.18882155922463</v>
+        <v>38.96091832573988</v>
       </c>
       <c r="E6" t="n">
-        <v>39.12147134262933</v>
+        <v>38.82631208611149</v>
       </c>
       <c r="F6" t="n">
-        <v>39.10148632438289</v>
+        <v>38.86787529094168</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7176695586677062</v>
+        <v>0.7206215346350735</v>
       </c>
     </row>
     <row r="7">
@@ -599,22 +599,22 @@
         <v>46428</v>
       </c>
       <c r="B7" t="n">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C7" t="n">
-        <v>40.05524053049152</v>
+        <v>39.81446199631663</v>
       </c>
       <c r="D7" t="n">
-        <v>40.07656870738951</v>
+        <v>39.91446047328422</v>
       </c>
       <c r="E7" t="n">
-        <v>40.20938949252054</v>
+        <v>39.8795555249831</v>
       </c>
       <c r="F7" t="n">
-        <v>40.05670146391358</v>
+        <v>39.79031552093029</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6834782145926793</v>
+        <v>0.6852930120885987</v>
       </c>
     </row>
   </sheetData>
@@ -628,7 +628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>32.07899999999641</v>
+        <v>32.06200000000236</v>
       </c>
     </row>
     <row r="3">
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="n">
-        <v>33.21058605865059</v>
+        <v>33.13620884787435</v>
       </c>
     </row>
     <row r="4">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" t="n">
-        <v>33.82774557359132</v>
+        <v>33.47105682489013</v>
       </c>
     </row>
     <row r="5">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C5" t="n">
-        <v>36.06825930236441</v>
+        <v>35.78439675064855</v>
       </c>
     </row>
     <row r="6">
@@ -712,10 +712,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>422</v>
+        <v>239</v>
       </c>
       <c r="C6" t="n">
-        <v>40.05670146391358</v>
+        <v>36.84498004973856</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TAHVIL</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>421</v>
+      </c>
+      <c r="C7" t="n">
+        <v>39.79031552093029</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TAHVIL</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>505</v>
+      </c>
+      <c r="C8" t="n">
+        <v>41.29337378737695</v>
       </c>
     </row>
   </sheetData>
@@ -729,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,11 +813,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>REPO 2025-12-16</t>
+          <t>REPO 2025-12-17</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -800,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9991218950336772</v>
+        <v>0.9991223599697164</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -809,7 +835,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Oran: %32.079</t>
+          <t>Oran: %32.062</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -836,21 +862,21 @@
         <v>46071</v>
       </c>
       <c r="C4" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" t="n">
         <v>118500</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9441603375527426</v>
+        <v>0.9450886075949367</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>111883</v>
+        <v>111993</v>
       </c>
       <c r="I4" t="n">
-        <v>33.21058605865059</v>
+        <v>33.13620884787435</v>
       </c>
     </row>
     <row r="5">
@@ -871,7 +897,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Piyasa: 111883.0</t>
+          <t>Piyasa: 111993.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -882,7 +908,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>111883</v>
+        <v>111993</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -911,21 +937,21 @@
         <v>46092</v>
       </c>
       <c r="C7" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" t="n">
         <v>100000</v>
       </c>
       <c r="E7" t="n">
-        <v>0.92618</v>
+        <v>0.92769</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>92618</v>
+        <v>92769</v>
       </c>
       <c r="I7" t="n">
-        <v>33.82774557359132</v>
+        <v>33.47105682489013</v>
       </c>
     </row>
     <row r="8">
@@ -946,7 +972,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Piyasa: 92618.0</t>
+          <t>Piyasa: 92769.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -957,7 +983,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>92618</v>
+        <v>92769</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -986,21 +1012,21 @@
         <v>46190</v>
       </c>
       <c r="C10" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D10" t="n">
         <v>100000</v>
       </c>
       <c r="E10" t="n">
-        <v>0.84615</v>
+        <v>0.84788</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>84615</v>
+        <v>84788</v>
       </c>
       <c r="I10" t="n">
-        <v>36.06825930236441</v>
+        <v>35.78439675064855</v>
       </c>
     </row>
     <row r="11">
@@ -1021,7 +1047,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Piyasa: 84615.0</t>
+          <t>Piyasa: 84788.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1032,7 +1058,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>84615</v>
+        <v>84788</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1054,131 +1080,362 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TAHVIL 2027-02-10</t>
+          <t>TAHVIL 2026-08-12</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>46063</v>
+        <v>46065</v>
       </c>
       <c r="C13" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13" t="n">
-        <v>16300</v>
+        <v>18000</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9510305322378595</v>
+        <v>0.9502346792496776</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>15501.79767547711</v>
+        <v>17104.2242264942</v>
       </c>
       <c r="I13" t="n">
-        <v>32.97227646663755</v>
+        <v>32.9579964252303</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TAHVIL 2027-02-10</t>
+          <t>TAHVIL 2026-08-12</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>46244</v>
+        <v>46246</v>
       </c>
       <c r="C14" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D14" t="n">
-        <v>16300</v>
+        <v>118000</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8092394853402791</v>
+        <v>0.8056336929958119</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>13190.60361104655</v>
+        <v>95064.7757735058</v>
       </c>
       <c r="I14" t="n">
-        <v>36.15158373128415</v>
+        <v>36.84498004973856</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TAHVIL 2027-02-10</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>46428</v>
-      </c>
-      <c r="C15" t="n">
-        <v>422</v>
-      </c>
-      <c r="D15" t="n">
-        <v>116300</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.6834703242775266</v>
+          <t>&gt;&gt;&gt; TOPLAM KONTROL</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Piyasa: 112169.0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>79487.59871347634</v>
-      </c>
-      <c r="I15" t="n">
-        <v>40.05670146391358</v>
+        <v>112169</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Fark: 0.00000</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>&gt;&gt;&gt; TOPLAM KONTROL</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Piyasa: 108180.0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>108180</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Fark: 0.00000</t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TAHVIL 2027-02-10</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>46063</v>
+      </c>
+      <c r="C17" t="n">
+        <v>56</v>
+      </c>
+      <c r="D17" t="n">
+        <v>16300</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9519500364679246</v>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>15516.78559442717</v>
+      </c>
+      <c r="I17" t="n">
+        <v>32.89907936592795</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TAHVIL 2027-02-10</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>46244</v>
+      </c>
+      <c r="C18" t="n">
+        <v>237</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16300</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8071424896745329</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>13156.42258169489</v>
+      </c>
+      <c r="I18" t="n">
+        <v>36.79856340066704</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TAHVIL 2027-02-10</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>46428</v>
+      </c>
+      <c r="C19" t="n">
+        <v>421</v>
+      </c>
+      <c r="D19" t="n">
+        <v>116300</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6854238333953391</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>79714.79182387794</v>
+      </c>
+      <c r="I19" t="n">
+        <v>39.79031552093029</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>&gt;&gt;&gt; TOPLAM KONTROL</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Piyasa: 108388.0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>108388</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Fark: 0.00000</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TAHVIL 2027-05-05</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>46148</v>
+      </c>
+      <c r="C22" t="n">
+        <v>141</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20500</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8820842857142857</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>18082.72785714285</v>
+      </c>
+      <c r="I22" t="n">
+        <v>34.60472104852422</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TAHVIL 2027-05-05</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>46330</v>
+      </c>
+      <c r="C23" t="n">
+        <v>323</v>
+      </c>
+      <c r="D23" t="n">
+        <v>20500</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7501522193340552</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>15378.12049634813</v>
+      </c>
+      <c r="I23" t="n">
+        <v>37.63712485294888</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TAHVIL 2027-05-05</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>46512</v>
+      </c>
+      <c r="C24" t="n">
+        <v>505</v>
+      </c>
+      <c r="D24" t="n">
+        <v>120500</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6364078974814026</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>76687.15164650901</v>
+      </c>
+      <c r="I24" t="n">
+        <v>41.29337378737695</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>&gt;&gt;&gt; TOPLAM KONTROL</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Piyasa: 110148.0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>110148</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Fark: 0.00000</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sonuc_detayli_kontrol.xlsx
+++ b/sonuc_detayli_kontrol.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,19 +487,19 @@
         <v>61</v>
       </c>
       <c r="C2" t="n">
-        <v>32.99024670814536</v>
+        <v>34.7868974377426</v>
       </c>
       <c r="D2" t="n">
-        <v>33.18876315320099</v>
+        <v>38.22988683247142</v>
       </c>
       <c r="E2" t="n">
-        <v>33.2274917005308</v>
+        <v>35.45477847080397</v>
       </c>
       <c r="F2" t="n">
-        <v>33.08505604559473</v>
+        <v>33.43674858710526</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9477465755092116</v>
+        <v>0.9450572030749</v>
       </c>
     </row>
     <row r="3">
@@ -510,19 +510,19 @@
         <v>150</v>
       </c>
       <c r="C3" t="n">
-        <v>35.08452219861199</v>
+        <v>35.81407122936665</v>
       </c>
       <c r="D3" t="n">
-        <v>35.00701944302548</v>
+        <v>36.5480634791501</v>
       </c>
       <c r="E3" t="n">
-        <v>34.87202970157595</v>
+        <v>34.51981273222719</v>
       </c>
       <c r="F3" t="n">
         <v>35.00541493891357</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8739860914035866</v>
+        <v>0.8717019372418261</v>
       </c>
     </row>
     <row r="4">
@@ -533,88 +533,19 @@
         <v>242</v>
       </c>
       <c r="C4" t="n">
-        <v>36.8760699407829</v>
+        <v>36.56927457448</v>
       </c>
       <c r="D4" t="n">
-        <v>36.77919652985388</v>
+        <v>34.85486320175433</v>
       </c>
       <c r="E4" t="n">
-        <v>36.57200156782487</v>
+        <v>33.55333129459728</v>
       </c>
       <c r="F4" t="n">
-        <v>36.89352953552743</v>
+        <v>36.52894363191884</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8035398209728152</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>46310</v>
-      </c>
-      <c r="B5" t="n">
-        <v>303</v>
-      </c>
-      <c r="C5" t="n">
-        <v>37.89300228954905</v>
-      </c>
-      <c r="D5" t="n">
-        <v>37.89404968606753</v>
-      </c>
-      <c r="E5" t="n">
-        <v>37.69915682696818</v>
-      </c>
-      <c r="F5" t="n">
-        <v>37.88070241323455</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.7607085934431435</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>46371</v>
-      </c>
-      <c r="B6" t="n">
-        <v>364</v>
-      </c>
-      <c r="C6" t="n">
-        <v>38.87560600909475</v>
-      </c>
-      <c r="D6" t="n">
-        <v>38.96091832573988</v>
-      </c>
-      <c r="E6" t="n">
-        <v>38.82631208611149</v>
-      </c>
-      <c r="F6" t="n">
-        <v>38.86787529094168</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.7206215346350735</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>46428</v>
-      </c>
-      <c r="B7" t="n">
-        <v>421</v>
-      </c>
-      <c r="C7" t="n">
-        <v>39.81446199631663</v>
-      </c>
-      <c r="D7" t="n">
-        <v>39.91446047328422</v>
-      </c>
-      <c r="E7" t="n">
-        <v>39.8795555249831</v>
-      </c>
-      <c r="F7" t="n">
-        <v>39.79031552093029</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.6852930120885987</v>
+        <v>0.8048553381713346</v>
       </c>
     </row>
   </sheetData>
@@ -628,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>32.06200000000236</v>
+        <v>37.72000000000231</v>
       </c>
     </row>
     <row r="3">
@@ -673,23 +604,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C3" t="n">
-        <v>33.13620884787435</v>
+        <v>33.83746823941315</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BONO</t>
+          <t>TAHVIL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C4" t="n">
-        <v>33.47105682489013</v>
+        <v>33.13620884787435</v>
       </c>
     </row>
     <row r="5">
@@ -699,23 +630,23 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>183</v>
+        <v>85</v>
       </c>
       <c r="C5" t="n">
-        <v>35.78439675064855</v>
+        <v>33.47105682489013</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TAHVIL</t>
+          <t>BONO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>239</v>
+        <v>183</v>
       </c>
       <c r="C6" t="n">
-        <v>36.84498004973856</v>
+        <v>35.78439675064855</v>
       </c>
     </row>
     <row r="7">
@@ -725,10 +656,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>421</v>
+        <v>239</v>
       </c>
       <c r="C7" t="n">
-        <v>39.79031552093029</v>
+        <v>36.48517072554629</v>
       </c>
     </row>
     <row r="8">
@@ -738,10 +669,179 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>421</v>
+      </c>
+      <c r="C8" t="n">
+        <v>39.14072704548051</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TAHVIL</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>505</v>
       </c>
-      <c r="C8" t="n">
-        <v>41.29337378737695</v>
+      <c r="C9" t="n">
+        <v>40.95048769507913</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TAHVIL</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>575</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25.51144777326207</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TAHVIL</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>638</v>
+      </c>
+      <c r="C11" t="n">
+        <v>38.22901444137824</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TAHVIL</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>666</v>
+      </c>
+      <c r="C12" t="n">
+        <v>28.32986925997974</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TAHVIL</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>946</v>
+      </c>
+      <c r="C13" t="n">
+        <v>25.61590920901755</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TAHVIL</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1058</v>
+      </c>
+      <c r="C14" t="n">
+        <v>19.33181743440768</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TAHVIL</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1366</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13.77842566378955</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TAHVIL</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1667</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7.067423951372358</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TAHVIL</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1751</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8.652842989513401</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TAHVIL</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2766</v>
+      </c>
+      <c r="C18" t="n">
+        <v>12.48378926125732</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TAHVIL</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2850</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.584190533986487</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TAHVIL</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3207</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.092112405467041</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TAHVIL</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3550</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.343854610023391</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9991223599697164</v>
+        <v>0.9989676422064649</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -835,7 +935,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Oran: %32.062</t>
+          <t>Oran: %37.72</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -855,28 +955,28 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TAHVIL 2026-02-18</t>
+          <t>TAHVIL 2026-02-11</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>46071</v>
+        <v>46064</v>
       </c>
       <c r="C4" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
-        <v>118500</v>
+        <v>105300</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9450886075949367</v>
+        <v>0.9498100664767332</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>111993</v>
+        <v>100015</v>
       </c>
       <c r="I4" t="n">
-        <v>33.13620884787435</v>
+        <v>33.83746823941315</v>
       </c>
     </row>
     <row r="5">
@@ -897,7 +997,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Piyasa: 111993.0</t>
+          <t>Piyasa: 100015.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -908,7 +1008,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>111993</v>
+        <v>100015</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -930,28 +1030,28 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BONO 2026-03-11</t>
+          <t>TAHVIL 2026-02-18</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>46092</v>
+        <v>46071</v>
       </c>
       <c r="C7" t="n">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D7" t="n">
-        <v>100000</v>
+        <v>118500</v>
       </c>
       <c r="E7" t="n">
-        <v>0.92769</v>
+        <v>0.9450886075949367</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>92769</v>
+        <v>111993</v>
       </c>
       <c r="I7" t="n">
-        <v>33.47105682489013</v>
+        <v>33.13620884787435</v>
       </c>
     </row>
     <row r="8">
@@ -972,7 +1072,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Piyasa: 92769.0</t>
+          <t>Piyasa: 111993.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,7 +1083,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>92769</v>
+        <v>111993</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1005,28 +1105,28 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BONO 2026-06-17</t>
+          <t>BONO 2026-03-11</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>46190</v>
+        <v>46092</v>
       </c>
       <c r="C10" t="n">
-        <v>183</v>
+        <v>85</v>
       </c>
       <c r="D10" t="n">
         <v>100000</v>
       </c>
       <c r="E10" t="n">
-        <v>0.84788</v>
+        <v>0.92769</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>84788</v>
+        <v>92769</v>
       </c>
       <c r="I10" t="n">
-        <v>35.78439675064855</v>
+        <v>33.47105682489013</v>
       </c>
     </row>
     <row r="11">
@@ -1047,7 +1147,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Piyasa: 84788.0</t>
+          <t>Piyasa: 92769.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1058,7 +1158,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>84788</v>
+        <v>92769</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1080,362 +1180,2309 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TAHVIL 2026-08-12</t>
+          <t>BONO 2026-06-17</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>46065</v>
+        <v>46190</v>
       </c>
       <c r="C13" t="n">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="D13" t="n">
-        <v>18000</v>
+        <v>100000</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9502346792496776</v>
+        <v>0.84788</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>17104.2242264942</v>
+        <v>84788</v>
       </c>
       <c r="I13" t="n">
-        <v>32.9579964252303</v>
+        <v>35.78439675064855</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TAHVIL 2026-08-12</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>46246</v>
-      </c>
-      <c r="C14" t="n">
-        <v>239</v>
-      </c>
-      <c r="D14" t="n">
-        <v>118000</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.8056336929958119</v>
+          <t>&gt;&gt;&gt; TOPLAM KONTROL</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Piyasa: 84788.0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>95064.7757735058</v>
-      </c>
-      <c r="I14" t="n">
-        <v>36.84498004973856</v>
+        <v>84788</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Fark: 0.00000</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>&gt;&gt;&gt; TOPLAM KONTROL</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Piyasa: 112169.0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>112169</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Fark: 0.00000</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TAHVIL 2026-08-12</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>46065</v>
+      </c>
+      <c r="C16" t="n">
+        <v>58</v>
+      </c>
+      <c r="D16" t="n">
+        <v>18000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9491355723507623</v>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>17084.44030231372</v>
+      </c>
+      <c r="I16" t="n">
+        <v>33.72490868098052</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TAHVIL 2027-02-10</t>
+          <t>TAHVIL 2026-08-12</t>
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>46063</v>
+        <v>46246</v>
       </c>
       <c r="C17" t="n">
-        <v>56</v>
+        <v>239</v>
       </c>
       <c r="D17" t="n">
-        <v>16300</v>
+        <v>118000</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9519500364679246</v>
+        <v>0.8071657601498838</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>15516.78559442717</v>
+        <v>95245.55969768629</v>
       </c>
       <c r="I17" t="n">
-        <v>32.89907936592795</v>
+        <v>36.48517072554629</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TAHVIL 2027-02-10</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="n">
-        <v>46244</v>
-      </c>
-      <c r="C18" t="n">
-        <v>237</v>
-      </c>
-      <c r="D18" t="n">
-        <v>16300</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.8071424896745329</v>
+          <t>&gt;&gt;&gt; TOPLAM KONTROL</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Piyasa: 112330.0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>13156.42258169489</v>
-      </c>
-      <c r="I18" t="n">
-        <v>36.79856340066704</v>
+        <v>112330</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Fark: 0.00000</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>TAHVIL 2027-02-10</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>46428</v>
-      </c>
-      <c r="C19" t="n">
-        <v>421</v>
-      </c>
-      <c r="D19" t="n">
-        <v>116300</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.6854238333953391</v>
-      </c>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>79714.79182387794</v>
-      </c>
-      <c r="I19" t="n">
-        <v>39.79031552093029</v>
-      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>&gt;&gt;&gt; TOPLAM KONTROL</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Piyasa: 108388.0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
+          <t>TAHVIL 2027-02-10</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>46063</v>
+      </c>
+      <c r="C20" t="n">
+        <v>56</v>
+      </c>
+      <c r="D20" t="n">
+        <v>16300</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9506878803290498</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>108388</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Fark: 0.00000</t>
-        </is>
+        <v>15496.21244936351</v>
+      </c>
+      <c r="I20" t="n">
+        <v>33.80808339699076</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TAHVIL 2027-02-10</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>46244</v>
+      </c>
+      <c r="C21" t="n">
+        <v>237</v>
+      </c>
+      <c r="D21" t="n">
+        <v>16300</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8086198401445308</v>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>13180.50339435585</v>
+      </c>
+      <c r="I21" t="n">
+        <v>36.449958530476</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TAHVIL 2027-05-05</t>
+          <t>TAHVIL 2027-02-10</t>
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>46148</v>
+        <v>46428</v>
       </c>
       <c r="C22" t="n">
-        <v>141</v>
+        <v>421</v>
       </c>
       <c r="D22" t="n">
-        <v>20500</v>
+        <v>116300</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8820842857142857</v>
+        <v>0.6889620305785092</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>18082.72785714285</v>
+        <v>80126.28415628063</v>
       </c>
       <c r="I22" t="n">
-        <v>34.60472104852422</v>
+        <v>39.14072704548051</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TAHVIL 2027-05-05</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="n">
-        <v>46330</v>
-      </c>
-      <c r="C23" t="n">
-        <v>323</v>
-      </c>
-      <c r="D23" t="n">
-        <v>20500</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.7501522193340552</v>
+          <t>&gt;&gt;&gt; TOPLAM KONTROL</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Piyasa: 108803.0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>15378.12049634813</v>
-      </c>
-      <c r="I23" t="n">
-        <v>37.63712485294888</v>
+        <v>108803</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Fark: 0.00000</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>TAHVIL 2027-05-05</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="n">
-        <v>46512</v>
-      </c>
-      <c r="C24" t="n">
-        <v>505</v>
-      </c>
-      <c r="D24" t="n">
-        <v>120500</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.6364078974814026</v>
-      </c>
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="n">
-        <v>76687.15164650901</v>
-      </c>
-      <c r="I24" t="n">
-        <v>41.29337378737695</v>
-      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>&gt;&gt;&gt; TOPLAM KONTROL</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Piyasa: 110148.0</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
+          <t>TAHVIL 2027-05-05</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>46147</v>
+      </c>
+      <c r="C25" t="n">
+        <v>140</v>
+      </c>
+      <c r="D25" t="n">
+        <v>20500</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8828986734693878</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>110148</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Fark: 0.00000</t>
-        </is>
+        <v>18099.42280612245</v>
+      </c>
+      <c r="I25" t="n">
+        <v>34.57926670413379</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>TAHVIL 2027-05-05</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>46331</v>
+      </c>
+      <c r="C26" t="n">
+        <v>324</v>
+      </c>
+      <c r="D26" t="n">
+        <v>20500</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7519607216138023</v>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>15415.19479308295</v>
+      </c>
+      <c r="I26" t="n">
+        <v>37.15978199618766</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>TAHVIL 2027-05-05</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>46512</v>
+      </c>
+      <c r="C27" t="n">
+        <v>505</v>
+      </c>
+      <c r="D27" t="n">
+        <v>120500</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.6383351236580465</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>76919.3824007946</v>
+      </c>
+      <c r="I27" t="n">
+        <v>40.95048769507913</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>&gt;&gt;&gt; TOPLAM KONTROL</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Piyasa: 110434.0</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>110434</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Fark: 0.00000</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>TAHVIL 2027-07-14</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>46036</v>
+      </c>
+      <c r="C30" t="n">
+        <v>29</v>
+      </c>
+      <c r="D30" t="n">
+        <v>18920</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9743888543415991</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>18435.43712414305</v>
+      </c>
+      <c r="I30" t="n">
+        <v>33.08198535708505</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>TAHVIL 2027-07-14</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>46217</v>
+      </c>
+      <c r="C31" t="n">
+        <v>210</v>
+      </c>
+      <c r="D31" t="n">
+        <v>18920</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.8282499200722654</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>15670.48848776726</v>
+      </c>
+      <c r="I31" t="n">
+        <v>36.04201930243786</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>TAHVIL 2027-07-14</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>46401</v>
+      </c>
+      <c r="C32" t="n">
+        <v>394</v>
+      </c>
+      <c r="D32" t="n">
+        <v>18920</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7064977487017351</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>13366.93740543683</v>
+      </c>
+      <c r="I32" t="n">
+        <v>38.48551452782993</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>TAHVIL 2027-07-14</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>46582</v>
+      </c>
+      <c r="C33" t="n">
+        <v>575</v>
+      </c>
+      <c r="D33" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.7133213698265285</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>71332.13698265285</v>
+      </c>
+      <c r="I33" t="n">
+        <v>25.51144777326207</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>&gt;&gt;&gt; TOPLAM KONTROL</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Piyasa: 118805.0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>118805</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Fark: 0.00000</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TAHVIL 2027-09-15</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>46096</v>
+      </c>
+      <c r="C36" t="n">
+        <v>89</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5140</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9244324489795919</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>4751.582787755102</v>
+      </c>
+      <c r="I36" t="n">
+        <v>33.52455518912792</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>TAHVIL 2027-09-15</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>46280</v>
+      </c>
+      <c r="C37" t="n">
+        <v>273</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5140</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.7850837447354512</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>4035.330447940219</v>
+      </c>
+      <c r="I37" t="n">
+        <v>36.60020322373339</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>TAHVIL 2027-09-15</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>46461</v>
+      </c>
+      <c r="C38" t="n">
+        <v>454</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5140</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.6690728885740417</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>3439.034647270574</v>
+      </c>
+      <c r="I38" t="n">
+        <v>39.76453679419272</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>TAHVIL 2027-09-15</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>46645</v>
+      </c>
+      <c r="C39" t="n">
+        <v>638</v>
+      </c>
+      <c r="D39" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5994405211703411</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>59944.05211703411</v>
+      </c>
+      <c r="I39" t="n">
+        <v>38.22901444137824</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>&gt;&gt;&gt; TOPLAM KONTROL</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Piyasa: 72170.0</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>72170</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Fark: 0.00000</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>TAHVIL 2027-10-13</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>46125</v>
+      </c>
+      <c r="C42" t="n">
+        <v>118</v>
+      </c>
+      <c r="D42" t="n">
+        <v>18390</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.9008152040816326</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>16565.99160306123</v>
+      </c>
+      <c r="I42" t="n">
+        <v>34.05808723725475</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>TAHVIL 2027-10-13</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>46308</v>
+      </c>
+      <c r="C43" t="n">
+        <v>301</v>
+      </c>
+      <c r="D43" t="n">
+        <v>18390</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.7668985555706244</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>14103.26443694378</v>
+      </c>
+      <c r="I43" t="n">
+        <v>36.85813986674216</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>TAHVIL 2027-10-13</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>46490</v>
+      </c>
+      <c r="C44" t="n">
+        <v>483</v>
+      </c>
+      <c r="D44" t="n">
+        <v>18390</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.6515945516610248</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>11982.82380504625</v>
+      </c>
+      <c r="I44" t="n">
+        <v>40.40668549114928</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>TAHVIL 2027-10-13</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>46673</v>
+      </c>
+      <c r="C45" t="n">
+        <v>666</v>
+      </c>
+      <c r="D45" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.6592292015494875</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>65922.92015494875</v>
+      </c>
+      <c r="I45" t="n">
+        <v>28.32986925997974</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>&gt;&gt;&gt; TOPLAM KONTROL</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Piyasa: 108575.0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="n">
+        <v>108575</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Fark: 0.00000</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>TAHVIL 2028-07-19</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>46041</v>
+      </c>
+      <c r="C48" t="n">
+        <v>34</v>
+      </c>
+      <c r="D48" t="n">
+        <v>8650</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.9699997850800158</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>8390.498140942136</v>
+      </c>
+      <c r="I48" t="n">
+        <v>33.20218578523561</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>TAHVIL 2028-07-19</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>46222</v>
+      </c>
+      <c r="C49" t="n">
+        <v>215</v>
+      </c>
+      <c r="D49" t="n">
+        <v>8650</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.8246147200856478</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>7132.917328740854</v>
+      </c>
+      <c r="I49" t="n">
+        <v>36.10742033315711</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>TAHVIL 2028-07-19</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>46406</v>
+      </c>
+      <c r="C50" t="n">
+        <v>399</v>
+      </c>
+      <c r="D50" t="n">
+        <v>8650</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.7032503934937303</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>6083.115903720767</v>
+      </c>
+      <c r="I50" t="n">
+        <v>38.6011405226377</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>TAHVIL 2028-07-19</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>46953</v>
+      </c>
+      <c r="C51" t="n">
+        <v>946</v>
+      </c>
+      <c r="D51" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.6009946862659624</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="n">
+        <v>60099.46862659624</v>
+      </c>
+      <c r="I51" t="n">
+        <v>25.61590920901755</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>&gt;&gt;&gt; TOPLAM KONTROL</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Piyasa: 81706.0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
+        <v>81706</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Fark: 0.00000</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>TAHVIL 2028-11-08</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>46150</v>
+      </c>
+      <c r="C54" t="n">
+        <v>143</v>
+      </c>
+      <c r="D54" t="n">
+        <v>15540</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.8804555102040816</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="n">
+        <v>13682.27862857143</v>
+      </c>
+      <c r="I54" t="n">
+        <v>34.65604301998821</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>TAHVIL 2028-11-08</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>46334</v>
+      </c>
+      <c r="C55" t="n">
+        <v>327</v>
+      </c>
+      <c r="D55" t="n">
+        <v>15540</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.7500123084889995</v>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="n">
+        <v>11655.19127391905</v>
+      </c>
+      <c r="I55" t="n">
+        <v>37.20448928317686</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>TAHVIL 2028-11-08</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>46515</v>
+      </c>
+      <c r="C56" t="n">
+        <v>508</v>
+      </c>
+      <c r="D56" t="n">
+        <v>15540</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.64154881992241</v>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>9969.668661594251</v>
+      </c>
+      <c r="I56" t="n">
+        <v>40.14481456641371</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>TAHVIL 2028-11-08</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>47065</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1058</v>
+      </c>
+      <c r="D57" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.6408786143591527</v>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>64087.86143591527</v>
+      </c>
+      <c r="I57" t="n">
+        <v>19.33181743440768</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>&gt;&gt;&gt; TOPLAM KONTROL</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Piyasa: 99395.0</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="n">
+        <v>99395</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Fark: 0.00000</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>TAHVIL 2029-09-12</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>46093</v>
+      </c>
+      <c r="C60" t="n">
+        <v>86</v>
+      </c>
+      <c r="D60" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.926875612244898</v>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="n">
+        <v>13903.13418367347</v>
+      </c>
+      <c r="I60" t="n">
+        <v>33.48383559453373</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>TAHVIL 2029-09-12</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>46277</v>
+      </c>
+      <c r="C61" t="n">
+        <v>270</v>
+      </c>
+      <c r="D61" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.7870321578602542</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="n">
+        <v>11805.48236790381</v>
+      </c>
+      <c r="I61" t="n">
+        <v>36.58058554611539</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>TAHVIL 2029-09-12</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>46458</v>
+      </c>
+      <c r="C62" t="n">
+        <v>451</v>
+      </c>
+      <c r="D62" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.6708809923926297</v>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="n">
+        <v>10063.21488588945</v>
+      </c>
+      <c r="I62" t="n">
+        <v>39.70304353144837</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>TAHVIL 2029-09-12</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>47373</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1366</v>
+      </c>
+      <c r="D63" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.6597816856253328</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="n">
+        <v>65978.16856253328</v>
+      </c>
+      <c r="I63" t="n">
+        <v>13.77842566378955</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>&gt;&gt;&gt; TOPLAM KONTROL</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Piyasa: 101750.0</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>101750</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Fark: 0.00000</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>TAHVIL 2030-07-10</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>46032</v>
+      </c>
+      <c r="C66" t="n">
+        <v>25</v>
+      </c>
+      <c r="D66" t="n">
+        <v>17050</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.9779001097508656</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>16673.19687125226</v>
+      </c>
+      <c r="I66" t="n">
+        <v>32.99502622200993</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>TAHVIL 2030-07-10</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>46213</v>
+      </c>
+      <c r="C67" t="n">
+        <v>206</v>
+      </c>
+      <c r="D67" t="n">
+        <v>17050</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.8311580800615594</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="n">
+        <v>14171.24526504959</v>
+      </c>
+      <c r="I67" t="n">
+        <v>35.99335209948282</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>TAHVIL 2030-07-10</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>46397</v>
+      </c>
+      <c r="C68" t="n">
+        <v>390</v>
+      </c>
+      <c r="D68" t="n">
+        <v>17050</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.709095632868139</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="n">
+        <v>12090.08054040177</v>
+      </c>
+      <c r="I68" t="n">
+        <v>38.39491299486015</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>TAHVIL 2030-07-10</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>47674</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1667</v>
+      </c>
+      <c r="D69" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.7559847732329638</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="n">
+        <v>75598.47732329638</v>
+      </c>
+      <c r="I69" t="n">
+        <v>7.067423951372358</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>&gt;&gt;&gt; TOPLAM KONTROL</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Piyasa: 118533.0</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="n">
+        <v>118533</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Fark: 0.00000</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>TAHVIL 2030-10-02</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>46114</v>
+      </c>
+      <c r="C72" t="n">
+        <v>107</v>
+      </c>
+      <c r="D72" t="n">
+        <v>16950</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.9097734693877551</v>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="n">
+        <v>15420.66030612245</v>
+      </c>
+      <c r="I72" t="n">
+        <v>33.83062935583105</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>TAHVIL 2030-10-02</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>46297</v>
+      </c>
+      <c r="C73" t="n">
+        <v>290</v>
+      </c>
+      <c r="D73" t="n">
+        <v>16950</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.7740427370282349</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="n">
+        <v>13120.02439262858</v>
+      </c>
+      <c r="I73" t="n">
+        <v>36.74144495509223</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>TAHVIL 2030-10-02</t>
+        </is>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>46479</v>
+      </c>
+      <c r="C74" t="n">
+        <v>472</v>
+      </c>
+      <c r="D74" t="n">
+        <v>16950</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.658224265662514</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="n">
+        <v>11156.90130297961</v>
+      </c>
+      <c r="I74" t="n">
+        <v>40.1530188103709</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>TAHVIL 2030-10-02</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="n">
+        <v>47758</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1751</v>
+      </c>
+      <c r="D75" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.7066641399826936</v>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>70666.41399826936</v>
+      </c>
+      <c r="I75" t="n">
+        <v>8.652842989513401</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>&gt;&gt;&gt; TOPLAM KONTROL</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Piyasa: 110364.0</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="n">
+        <v>110364</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Fark: 0.00000</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>TAHVIL 2033-07-13</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="n">
+        <v>46035</v>
+      </c>
+      <c r="C78" t="n">
+        <v>28</v>
+      </c>
+      <c r="D78" t="n">
+        <v>8900</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.9752666681939157</v>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="n">
+        <v>8679.87334692585</v>
+      </c>
+      <c r="I78" t="n">
+        <v>33.05933210605504</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>TAHVIL 2033-07-13</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="n">
+        <v>46216</v>
+      </c>
+      <c r="C79" t="n">
+        <v>209</v>
+      </c>
+      <c r="D79" t="n">
+        <v>8900</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.8289769600695889</v>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="n">
+        <v>7377.894944619341</v>
+      </c>
+      <c r="I79" t="n">
+        <v>36.02954185968382</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>TAHVIL 2033-07-13</t>
+        </is>
+      </c>
+      <c r="B80" s="3" t="n">
+        <v>46400</v>
+      </c>
+      <c r="C80" t="n">
+        <v>393</v>
+      </c>
+      <c r="D80" t="n">
+        <v>8900</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.7071472197433362</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="n">
+        <v>6293.610255715692</v>
+      </c>
+      <c r="I80" t="n">
+        <v>38.46270529461778</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>TAHVIL 2033-07-13</t>
+        </is>
+      </c>
+      <c r="B81" s="3" t="n">
+        <v>48773</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2766</v>
+      </c>
+      <c r="D81" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.5138662145273911</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="n">
+        <v>51386.62145273911</v>
+      </c>
+      <c r="I81" t="n">
+        <v>12.48378926125732</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>&gt;&gt;&gt; TOPLAM KONTROL</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Piyasa: 73738.0</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="n">
+        <v>73738</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Fark: 0.00000</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>TAHVIL 2033-10-05</t>
+        </is>
+      </c>
+      <c r="B84" s="3" t="n">
+        <v>46117</v>
+      </c>
+      <c r="C84" t="n">
+        <v>110</v>
+      </c>
+      <c r="D84" t="n">
+        <v>13100</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.907330306122449</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="n">
+        <v>11886.02701020408</v>
+      </c>
+      <c r="I84" t="n">
+        <v>33.89007192265726</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>TAHVIL 2033-10-05</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="n">
+        <v>46300</v>
+      </c>
+      <c r="C85" t="n">
+        <v>293</v>
+      </c>
+      <c r="D85" t="n">
+        <v>13100</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.772094323903432</v>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="n">
+        <v>10114.43564313496</v>
+      </c>
+      <c r="I85" t="n">
+        <v>36.77138822176045</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>TAHVIL 2033-10-05</t>
+        </is>
+      </c>
+      <c r="B86" s="3" t="n">
+        <v>46482</v>
+      </c>
+      <c r="C86" t="n">
+        <v>475</v>
+      </c>
+      <c r="D86" t="n">
+        <v>13100</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.656416161843926</v>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="n">
+        <v>8599.05172015543</v>
+      </c>
+      <c r="I86" t="n">
+        <v>40.22098630866174</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>TAHVIL 2033-10-05</t>
+        </is>
+      </c>
+      <c r="B87" s="3" t="n">
+        <v>48857</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2850</v>
+      </c>
+      <c r="D87" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.6604548562650553</v>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="n">
+        <v>66045.48562650553</v>
+      </c>
+      <c r="I87" t="n">
+        <v>6.584190533986487</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>&gt;&gt;&gt; TOPLAM KONTROL</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Piyasa: 96645.0</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="n">
+        <v>96645</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Fark: 0.00000</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>TAHVIL 2034-09-27</t>
+        </is>
+      </c>
+      <c r="B90" s="3" t="n">
+        <v>46108</v>
+      </c>
+      <c r="C90" t="n">
+        <v>101</v>
+      </c>
+      <c r="D90" t="n">
+        <v>13850</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.9146597959183673</v>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="n">
+        <v>12668.03817346939</v>
+      </c>
+      <c r="I90" t="n">
+        <v>33.71829281138825</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>TAHVIL 2034-09-27</t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="n">
+        <v>46292</v>
+      </c>
+      <c r="C91" t="n">
+        <v>285</v>
+      </c>
+      <c r="D91" t="n">
+        <v>13850</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.7772900922362397</v>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="n">
+        <v>10765.46777747192</v>
+      </c>
+      <c r="I91" t="n">
+        <v>36.6947903287434</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>TAHVIL 2034-09-27</t>
+        </is>
+      </c>
+      <c r="B92" s="3" t="n">
+        <v>46473</v>
+      </c>
+      <c r="C92" t="n">
+        <v>466</v>
+      </c>
+      <c r="D92" t="n">
+        <v>13850</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.6618404732996899</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="n">
+        <v>9166.490555200704</v>
+      </c>
+      <c r="I92" t="n">
+        <v>40.01983123224539</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>TAHVIL 2034-09-27</t>
+        </is>
+      </c>
+      <c r="B93" s="3" t="n">
+        <v>49214</v>
+      </c>
+      <c r="C93" t="n">
+        <v>3207</v>
+      </c>
+      <c r="D93" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.6908900349385799</v>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="n">
+        <v>69089.00349385799</v>
+      </c>
+      <c r="I93" t="n">
+        <v>5.092112405467041</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>&gt;&gt;&gt; TOPLAM KONTROL</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Piyasa: 101689.0</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="n">
+        <v>101689</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Fark: 0.00000</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>TAHVIL 2035-09-05</t>
+        </is>
+      </c>
+      <c r="B96" s="3" t="n">
+        <v>46086</v>
+      </c>
+      <c r="C96" t="n">
+        <v>79</v>
+      </c>
+      <c r="D96" t="n">
+        <v>15030</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.9326610307414105</v>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="n">
+        <v>14017.8952920434</v>
+      </c>
+      <c r="I96" t="n">
+        <v>33.35864537705387</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>TAHVIL 2035-09-05</t>
+        </is>
+      </c>
+      <c r="B97" s="3" t="n">
+        <v>46270</v>
+      </c>
+      <c r="C97" t="n">
+        <v>263</v>
+      </c>
+      <c r="D97" t="n">
+        <v>15030</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.7915784551514609</v>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="n">
+        <v>11897.42418092646</v>
+      </c>
+      <c r="I97" t="n">
+        <v>36.54144871726272</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>TAHVIL 2035-09-05</t>
+        </is>
+      </c>
+      <c r="B98" s="3" t="n">
+        <v>46451</v>
+      </c>
+      <c r="C98" t="n">
+        <v>444</v>
+      </c>
+      <c r="D98" t="n">
+        <v>15030</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.6750999013026683</v>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="n">
+        <v>10146.7515165791</v>
+      </c>
+      <c r="I98" t="n">
+        <v>39.56322565551537</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>TAHVIL 2035-09-05</t>
+        </is>
+      </c>
+      <c r="B99" s="3" t="n">
+        <v>49557</v>
+      </c>
+      <c r="C99" t="n">
+        <v>3550</v>
+      </c>
+      <c r="D99" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.7545892901045105</v>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="n">
+        <v>75458.92901045104</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3.343854610023391</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>&gt;&gt;&gt; TOPLAM KONTROL</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Piyasa: 111521.0</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="n">
+        <v>111521</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Fark: 0.00000</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
